--- a/Test_Irvandi Hutapea.xlsx
+++ b/Test_Irvandi Hutapea.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="88">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -224,12 +224,84 @@
   <si>
     <t>an alert "Email Already Register"</t>
   </si>
+  <si>
+    <t>TS_002</t>
+  </si>
+  <si>
+    <t>User Login</t>
+  </si>
+  <si>
+    <t>• The user account exists in the system.</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>To ensure that user can log in after entering correct credentials (Email and Password)</t>
+  </si>
+  <si>
+    <t>link web : https://stage.mobipaid.com/en/login</t>
+  </si>
+  <si>
+    <t>Users access the login website</t>
+  </si>
+  <si>
+    <t>User will be directed to user Login page</t>
+  </si>
+  <si>
+    <t>The user is directed to the Login page.</t>
+  </si>
+  <si>
+    <t>user input email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email field can be typed </t>
+  </si>
+  <si>
+    <t>The Email fields are user-typeable</t>
+  </si>
+  <si>
+    <t>user input password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password field can be typed </t>
+  </si>
+  <si>
+    <t>The Password fields are user-typeable</t>
+  </si>
+  <si>
+    <t>Click on the "Login" button.</t>
+  </si>
+  <si>
+    <t>The user should be able to log in successfully and the application's home page should be displayed after successful login.</t>
+  </si>
+  <si>
+    <t>The user has successfully logged in and the application home page appears after successfully login.</t>
+  </si>
+  <si>
+    <t>• The user account does not exist in the system.</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>To ensure that a warning pop up appears and the user cannot login.</t>
+  </si>
+  <si>
+    <t>The user is directed to the Home page.</t>
+  </si>
+  <si>
+    <t>Click on the "Masuk" button.</t>
+  </si>
+  <si>
+    <t>An alert appears "Invalid Email or Password"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -252,13 +324,22 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font/>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Lato"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,35 +348,154 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor rgb="FFEA9999"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,494 +758,3779 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="6">
         <v>1.0</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3">
-      <c r="G3" s="2" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="6">
         <v>2.0</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4">
-      <c r="G4" s="2" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="6">
         <v>3.0</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5">
-      <c r="G5" s="2" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="6">
         <v>4.0</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6">
-      <c r="G6" s="2" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="6">
         <v>5.0</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7">
-      <c r="G7" s="2" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="6">
         <v>6.0</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8">
-      <c r="G8" s="2" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="6">
         <v>7.0</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9">
-      <c r="H9" s="2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="6">
         <v>8.0</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10">
-      <c r="H10" s="2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="6">
         <v>9.0</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11">
-      <c r="H11" s="2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="6">
         <v>10.0</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12">
-      <c r="H12" s="2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="6">
         <v>11.0</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13">
-      <c r="H13" s="2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="6">
         <v>12.0</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14">
-      <c r="H14" s="2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="6">
         <v>13.0</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="6">
         <v>1.0</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16">
-      <c r="G16" s="2" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="6">
         <v>2.0</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17">
-      <c r="G17" s="2" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="6">
         <v>3.0</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18">
-      <c r="G18" s="2" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="6">
         <v>4.0</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19">
-      <c r="G19" s="2" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="6">
         <v>5.0</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20">
-      <c r="G20" s="2" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="6">
         <v>6.0</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21">
-      <c r="G21" s="2" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="6">
         <v>7.0</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22">
-      <c r="H22" s="2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="6">
         <v>8.0</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23">
-      <c r="H23" s="2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="6">
         <v>9.0</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24">
-      <c r="H24" s="2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="6">
         <v>10.0</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L24" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25">
-      <c r="H25" s="2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="6">
         <v>11.0</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L25" s="8" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="K28" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9"/>
+      <c r="B30" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="K30" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="K31" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="L31" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="K32" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="L32" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="11"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="J33" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="K33" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L33" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="29"/>
+    </row>
+    <row r="35">
+      <c r="L35" s="30"/>
+    </row>
+    <row r="36">
+      <c r="L36" s="30"/>
+    </row>
+    <row r="37">
+      <c r="L37" s="30"/>
+    </row>
+    <row r="38">
+      <c r="L38" s="30"/>
+    </row>
+    <row r="39">
+      <c r="L39" s="30"/>
+    </row>
+    <row r="40">
+      <c r="L40" s="30"/>
+    </row>
+    <row r="41">
+      <c r="L41" s="30"/>
+    </row>
+    <row r="42">
+      <c r="L42" s="30"/>
+    </row>
+    <row r="43">
+      <c r="L43" s="30"/>
+    </row>
+    <row r="44">
+      <c r="L44" s="30"/>
+    </row>
+    <row r="45">
+      <c r="L45" s="30"/>
+    </row>
+    <row r="46">
+      <c r="L46" s="30"/>
+    </row>
+    <row r="47">
+      <c r="L47" s="30"/>
+    </row>
+    <row r="48">
+      <c r="L48" s="30"/>
+    </row>
+    <row r="49">
+      <c r="L49" s="30"/>
+    </row>
+    <row r="50">
+      <c r="L50" s="30"/>
+    </row>
+    <row r="51">
+      <c r="L51" s="30"/>
+    </row>
+    <row r="52">
+      <c r="L52" s="30"/>
+    </row>
+    <row r="53">
+      <c r="L53" s="30"/>
+    </row>
+    <row r="54">
+      <c r="L54" s="30"/>
+    </row>
+    <row r="55">
+      <c r="L55" s="30"/>
+    </row>
+    <row r="56">
+      <c r="L56" s="30"/>
+    </row>
+    <row r="57">
+      <c r="L57" s="30"/>
+    </row>
+    <row r="58">
+      <c r="L58" s="30"/>
+    </row>
+    <row r="59">
+      <c r="L59" s="30"/>
+    </row>
+    <row r="60">
+      <c r="L60" s="30"/>
+    </row>
+    <row r="61">
+      <c r="L61" s="30"/>
+    </row>
+    <row r="62">
+      <c r="L62" s="30"/>
+    </row>
+    <row r="63">
+      <c r="L63" s="30"/>
+    </row>
+    <row r="64">
+      <c r="L64" s="30"/>
+    </row>
+    <row r="65">
+      <c r="L65" s="30"/>
+    </row>
+    <row r="66">
+      <c r="L66" s="30"/>
+    </row>
+    <row r="67">
+      <c r="L67" s="30"/>
+    </row>
+    <row r="68">
+      <c r="L68" s="30"/>
+    </row>
+    <row r="69">
+      <c r="L69" s="30"/>
+    </row>
+    <row r="70">
+      <c r="L70" s="30"/>
+    </row>
+    <row r="71">
+      <c r="L71" s="30"/>
+    </row>
+    <row r="72">
+      <c r="L72" s="30"/>
+    </row>
+    <row r="73">
+      <c r="L73" s="30"/>
+    </row>
+    <row r="74">
+      <c r="L74" s="30"/>
+    </row>
+    <row r="75">
+      <c r="L75" s="30"/>
+    </row>
+    <row r="76">
+      <c r="L76" s="30"/>
+    </row>
+    <row r="77">
+      <c r="L77" s="30"/>
+    </row>
+    <row r="78">
+      <c r="L78" s="30"/>
+    </row>
+    <row r="79">
+      <c r="L79" s="30"/>
+    </row>
+    <row r="80">
+      <c r="L80" s="30"/>
+    </row>
+    <row r="81">
+      <c r="L81" s="30"/>
+    </row>
+    <row r="82">
+      <c r="L82" s="30"/>
+    </row>
+    <row r="83">
+      <c r="L83" s="30"/>
+    </row>
+    <row r="84">
+      <c r="L84" s="30"/>
+    </row>
+    <row r="85">
+      <c r="L85" s="30"/>
+    </row>
+    <row r="86">
+      <c r="L86" s="30"/>
+    </row>
+    <row r="87">
+      <c r="L87" s="30"/>
+    </row>
+    <row r="88">
+      <c r="L88" s="30"/>
+    </row>
+    <row r="89">
+      <c r="L89" s="30"/>
+    </row>
+    <row r="90">
+      <c r="L90" s="30"/>
+    </row>
+    <row r="91">
+      <c r="L91" s="30"/>
+    </row>
+    <row r="92">
+      <c r="L92" s="30"/>
+    </row>
+    <row r="93">
+      <c r="L93" s="30"/>
+    </row>
+    <row r="94">
+      <c r="L94" s="30"/>
+    </row>
+    <row r="95">
+      <c r="L95" s="30"/>
+    </row>
+    <row r="96">
+      <c r="L96" s="30"/>
+    </row>
+    <row r="97">
+      <c r="L97" s="30"/>
+    </row>
+    <row r="98">
+      <c r="L98" s="30"/>
+    </row>
+    <row r="99">
+      <c r="L99" s="30"/>
+    </row>
+    <row r="100">
+      <c r="L100" s="30"/>
+    </row>
+    <row r="101">
+      <c r="L101" s="30"/>
+    </row>
+    <row r="102">
+      <c r="L102" s="30"/>
+    </row>
+    <row r="103">
+      <c r="L103" s="30"/>
+    </row>
+    <row r="104">
+      <c r="L104" s="30"/>
+    </row>
+    <row r="105">
+      <c r="L105" s="30"/>
+    </row>
+    <row r="106">
+      <c r="L106" s="30"/>
+    </row>
+    <row r="107">
+      <c r="L107" s="30"/>
+    </row>
+    <row r="108">
+      <c r="L108" s="30"/>
+    </row>
+    <row r="109">
+      <c r="L109" s="30"/>
+    </row>
+    <row r="110">
+      <c r="L110" s="30"/>
+    </row>
+    <row r="111">
+      <c r="L111" s="30"/>
+    </row>
+    <row r="112">
+      <c r="L112" s="30"/>
+    </row>
+    <row r="113">
+      <c r="L113" s="30"/>
+    </row>
+    <row r="114">
+      <c r="L114" s="30"/>
+    </row>
+    <row r="115">
+      <c r="L115" s="30"/>
+    </row>
+    <row r="116">
+      <c r="L116" s="30"/>
+    </row>
+    <row r="117">
+      <c r="L117" s="30"/>
+    </row>
+    <row r="118">
+      <c r="L118" s="30"/>
+    </row>
+    <row r="119">
+      <c r="L119" s="30"/>
+    </row>
+    <row r="120">
+      <c r="L120" s="30"/>
+    </row>
+    <row r="121">
+      <c r="L121" s="30"/>
+    </row>
+    <row r="122">
+      <c r="L122" s="30"/>
+    </row>
+    <row r="123">
+      <c r="L123" s="30"/>
+    </row>
+    <row r="124">
+      <c r="L124" s="30"/>
+    </row>
+    <row r="125">
+      <c r="L125" s="30"/>
+    </row>
+    <row r="126">
+      <c r="L126" s="30"/>
+    </row>
+    <row r="127">
+      <c r="L127" s="30"/>
+    </row>
+    <row r="128">
+      <c r="L128" s="30"/>
+    </row>
+    <row r="129">
+      <c r="L129" s="30"/>
+    </row>
+    <row r="130">
+      <c r="L130" s="30"/>
+    </row>
+    <row r="131">
+      <c r="L131" s="30"/>
+    </row>
+    <row r="132">
+      <c r="L132" s="30"/>
+    </row>
+    <row r="133">
+      <c r="L133" s="30"/>
+    </row>
+    <row r="134">
+      <c r="L134" s="30"/>
+    </row>
+    <row r="135">
+      <c r="L135" s="30"/>
+    </row>
+    <row r="136">
+      <c r="L136" s="30"/>
+    </row>
+    <row r="137">
+      <c r="L137" s="30"/>
+    </row>
+    <row r="138">
+      <c r="L138" s="30"/>
+    </row>
+    <row r="139">
+      <c r="L139" s="30"/>
+    </row>
+    <row r="140">
+      <c r="L140" s="30"/>
+    </row>
+    <row r="141">
+      <c r="L141" s="30"/>
+    </row>
+    <row r="142">
+      <c r="L142" s="30"/>
+    </row>
+    <row r="143">
+      <c r="L143" s="30"/>
+    </row>
+    <row r="144">
+      <c r="L144" s="30"/>
+    </row>
+    <row r="145">
+      <c r="L145" s="30"/>
+    </row>
+    <row r="146">
+      <c r="L146" s="30"/>
+    </row>
+    <row r="147">
+      <c r="L147" s="30"/>
+    </row>
+    <row r="148">
+      <c r="L148" s="30"/>
+    </row>
+    <row r="149">
+      <c r="L149" s="30"/>
+    </row>
+    <row r="150">
+      <c r="L150" s="30"/>
+    </row>
+    <row r="151">
+      <c r="L151" s="30"/>
+    </row>
+    <row r="152">
+      <c r="L152" s="30"/>
+    </row>
+    <row r="153">
+      <c r="L153" s="30"/>
+    </row>
+    <row r="154">
+      <c r="L154" s="30"/>
+    </row>
+    <row r="155">
+      <c r="L155" s="30"/>
+    </row>
+    <row r="156">
+      <c r="L156" s="30"/>
+    </row>
+    <row r="157">
+      <c r="L157" s="30"/>
+    </row>
+    <row r="158">
+      <c r="L158" s="30"/>
+    </row>
+    <row r="159">
+      <c r="L159" s="30"/>
+    </row>
+    <row r="160">
+      <c r="L160" s="30"/>
+    </row>
+    <row r="161">
+      <c r="L161" s="30"/>
+    </row>
+    <row r="162">
+      <c r="L162" s="30"/>
+    </row>
+    <row r="163">
+      <c r="L163" s="30"/>
+    </row>
+    <row r="164">
+      <c r="L164" s="30"/>
+    </row>
+    <row r="165">
+      <c r="L165" s="30"/>
+    </row>
+    <row r="166">
+      <c r="L166" s="30"/>
+    </row>
+    <row r="167">
+      <c r="L167" s="30"/>
+    </row>
+    <row r="168">
+      <c r="L168" s="30"/>
+    </row>
+    <row r="169">
+      <c r="L169" s="30"/>
+    </row>
+    <row r="170">
+      <c r="L170" s="30"/>
+    </row>
+    <row r="171">
+      <c r="L171" s="30"/>
+    </row>
+    <row r="172">
+      <c r="L172" s="30"/>
+    </row>
+    <row r="173">
+      <c r="L173" s="30"/>
+    </row>
+    <row r="174">
+      <c r="L174" s="30"/>
+    </row>
+    <row r="175">
+      <c r="L175" s="30"/>
+    </row>
+    <row r="176">
+      <c r="L176" s="30"/>
+    </row>
+    <row r="177">
+      <c r="L177" s="30"/>
+    </row>
+    <row r="178">
+      <c r="L178" s="30"/>
+    </row>
+    <row r="179">
+      <c r="L179" s="30"/>
+    </row>
+    <row r="180">
+      <c r="L180" s="30"/>
+    </row>
+    <row r="181">
+      <c r="L181" s="30"/>
+    </row>
+    <row r="182">
+      <c r="L182" s="30"/>
+    </row>
+    <row r="183">
+      <c r="L183" s="30"/>
+    </row>
+    <row r="184">
+      <c r="L184" s="30"/>
+    </row>
+    <row r="185">
+      <c r="L185" s="30"/>
+    </row>
+    <row r="186">
+      <c r="L186" s="30"/>
+    </row>
+    <row r="187">
+      <c r="L187" s="30"/>
+    </row>
+    <row r="188">
+      <c r="L188" s="30"/>
+    </row>
+    <row r="189">
+      <c r="L189" s="30"/>
+    </row>
+    <row r="190">
+      <c r="L190" s="30"/>
+    </row>
+    <row r="191">
+      <c r="L191" s="30"/>
+    </row>
+    <row r="192">
+      <c r="L192" s="30"/>
+    </row>
+    <row r="193">
+      <c r="L193" s="30"/>
+    </row>
+    <row r="194">
+      <c r="L194" s="30"/>
+    </row>
+    <row r="195">
+      <c r="L195" s="30"/>
+    </row>
+    <row r="196">
+      <c r="L196" s="30"/>
+    </row>
+    <row r="197">
+      <c r="L197" s="30"/>
+    </row>
+    <row r="198">
+      <c r="L198" s="30"/>
+    </row>
+    <row r="199">
+      <c r="L199" s="30"/>
+    </row>
+    <row r="200">
+      <c r="L200" s="30"/>
+    </row>
+    <row r="201">
+      <c r="L201" s="30"/>
+    </row>
+    <row r="202">
+      <c r="L202" s="30"/>
+    </row>
+    <row r="203">
+      <c r="L203" s="30"/>
+    </row>
+    <row r="204">
+      <c r="L204" s="30"/>
+    </row>
+    <row r="205">
+      <c r="L205" s="30"/>
+    </row>
+    <row r="206">
+      <c r="L206" s="30"/>
+    </row>
+    <row r="207">
+      <c r="L207" s="30"/>
+    </row>
+    <row r="208">
+      <c r="L208" s="30"/>
+    </row>
+    <row r="209">
+      <c r="L209" s="30"/>
+    </row>
+    <row r="210">
+      <c r="L210" s="30"/>
+    </row>
+    <row r="211">
+      <c r="L211" s="30"/>
+    </row>
+    <row r="212">
+      <c r="L212" s="30"/>
+    </row>
+    <row r="213">
+      <c r="L213" s="30"/>
+    </row>
+    <row r="214">
+      <c r="L214" s="30"/>
+    </row>
+    <row r="215">
+      <c r="L215" s="30"/>
+    </row>
+    <row r="216">
+      <c r="L216" s="30"/>
+    </row>
+    <row r="217">
+      <c r="L217" s="30"/>
+    </row>
+    <row r="218">
+      <c r="L218" s="30"/>
+    </row>
+    <row r="219">
+      <c r="L219" s="30"/>
+    </row>
+    <row r="220">
+      <c r="L220" s="30"/>
+    </row>
+    <row r="221">
+      <c r="L221" s="30"/>
+    </row>
+    <row r="222">
+      <c r="L222" s="30"/>
+    </row>
+    <row r="223">
+      <c r="L223" s="30"/>
+    </row>
+    <row r="224">
+      <c r="L224" s="30"/>
+    </row>
+    <row r="225">
+      <c r="L225" s="30"/>
+    </row>
+    <row r="226">
+      <c r="L226" s="30"/>
+    </row>
+    <row r="227">
+      <c r="L227" s="30"/>
+    </row>
+    <row r="228">
+      <c r="L228" s="30"/>
+    </row>
+    <row r="229">
+      <c r="L229" s="30"/>
+    </row>
+    <row r="230">
+      <c r="L230" s="30"/>
+    </row>
+    <row r="231">
+      <c r="L231" s="30"/>
+    </row>
+    <row r="232">
+      <c r="L232" s="30"/>
+    </row>
+    <row r="233">
+      <c r="L233" s="30"/>
+    </row>
+    <row r="234">
+      <c r="L234" s="30"/>
+    </row>
+    <row r="235">
+      <c r="L235" s="30"/>
+    </row>
+    <row r="236">
+      <c r="L236" s="30"/>
+    </row>
+    <row r="237">
+      <c r="L237" s="30"/>
+    </row>
+    <row r="238">
+      <c r="L238" s="30"/>
+    </row>
+    <row r="239">
+      <c r="L239" s="30"/>
+    </row>
+    <row r="240">
+      <c r="L240" s="30"/>
+    </row>
+    <row r="241">
+      <c r="L241" s="30"/>
+    </row>
+    <row r="242">
+      <c r="L242" s="30"/>
+    </row>
+    <row r="243">
+      <c r="L243" s="30"/>
+    </row>
+    <row r="244">
+      <c r="L244" s="30"/>
+    </row>
+    <row r="245">
+      <c r="L245" s="30"/>
+    </row>
+    <row r="246">
+      <c r="L246" s="30"/>
+    </row>
+    <row r="247">
+      <c r="L247" s="30"/>
+    </row>
+    <row r="248">
+      <c r="L248" s="30"/>
+    </row>
+    <row r="249">
+      <c r="L249" s="30"/>
+    </row>
+    <row r="250">
+      <c r="L250" s="30"/>
+    </row>
+    <row r="251">
+      <c r="L251" s="30"/>
+    </row>
+    <row r="252">
+      <c r="L252" s="30"/>
+    </row>
+    <row r="253">
+      <c r="L253" s="30"/>
+    </row>
+    <row r="254">
+      <c r="L254" s="30"/>
+    </row>
+    <row r="255">
+      <c r="L255" s="30"/>
+    </row>
+    <row r="256">
+      <c r="L256" s="30"/>
+    </row>
+    <row r="257">
+      <c r="L257" s="30"/>
+    </row>
+    <row r="258">
+      <c r="L258" s="30"/>
+    </row>
+    <row r="259">
+      <c r="L259" s="30"/>
+    </row>
+    <row r="260">
+      <c r="L260" s="30"/>
+    </row>
+    <row r="261">
+      <c r="L261" s="30"/>
+    </row>
+    <row r="262">
+      <c r="L262" s="30"/>
+    </row>
+    <row r="263">
+      <c r="L263" s="30"/>
+    </row>
+    <row r="264">
+      <c r="L264" s="30"/>
+    </row>
+    <row r="265">
+      <c r="L265" s="30"/>
+    </row>
+    <row r="266">
+      <c r="L266" s="30"/>
+    </row>
+    <row r="267">
+      <c r="L267" s="30"/>
+    </row>
+    <row r="268">
+      <c r="L268" s="30"/>
+    </row>
+    <row r="269">
+      <c r="L269" s="30"/>
+    </row>
+    <row r="270">
+      <c r="L270" s="30"/>
+    </row>
+    <row r="271">
+      <c r="L271" s="30"/>
+    </row>
+    <row r="272">
+      <c r="L272" s="30"/>
+    </row>
+    <row r="273">
+      <c r="L273" s="30"/>
+    </row>
+    <row r="274">
+      <c r="L274" s="30"/>
+    </row>
+    <row r="275">
+      <c r="L275" s="30"/>
+    </row>
+    <row r="276">
+      <c r="L276" s="30"/>
+    </row>
+    <row r="277">
+      <c r="L277" s="30"/>
+    </row>
+    <row r="278">
+      <c r="L278" s="30"/>
+    </row>
+    <row r="279">
+      <c r="L279" s="30"/>
+    </row>
+    <row r="280">
+      <c r="L280" s="30"/>
+    </row>
+    <row r="281">
+      <c r="L281" s="30"/>
+    </row>
+    <row r="282">
+      <c r="L282" s="30"/>
+    </row>
+    <row r="283">
+      <c r="L283" s="30"/>
+    </row>
+    <row r="284">
+      <c r="L284" s="30"/>
+    </row>
+    <row r="285">
+      <c r="L285" s="30"/>
+    </row>
+    <row r="286">
+      <c r="L286" s="30"/>
+    </row>
+    <row r="287">
+      <c r="L287" s="30"/>
+    </row>
+    <row r="288">
+      <c r="L288" s="30"/>
+    </row>
+    <row r="289">
+      <c r="L289" s="30"/>
+    </row>
+    <row r="290">
+      <c r="L290" s="30"/>
+    </row>
+    <row r="291">
+      <c r="L291" s="30"/>
+    </row>
+    <row r="292">
+      <c r="L292" s="30"/>
+    </row>
+    <row r="293">
+      <c r="L293" s="30"/>
+    </row>
+    <row r="294">
+      <c r="L294" s="30"/>
+    </row>
+    <row r="295">
+      <c r="L295" s="30"/>
+    </row>
+    <row r="296">
+      <c r="L296" s="30"/>
+    </row>
+    <row r="297">
+      <c r="L297" s="30"/>
+    </row>
+    <row r="298">
+      <c r="L298" s="30"/>
+    </row>
+    <row r="299">
+      <c r="L299" s="30"/>
+    </row>
+    <row r="300">
+      <c r="L300" s="30"/>
+    </row>
+    <row r="301">
+      <c r="L301" s="30"/>
+    </row>
+    <row r="302">
+      <c r="L302" s="30"/>
+    </row>
+    <row r="303">
+      <c r="L303" s="30"/>
+    </row>
+    <row r="304">
+      <c r="L304" s="30"/>
+    </row>
+    <row r="305">
+      <c r="L305" s="30"/>
+    </row>
+    <row r="306">
+      <c r="L306" s="30"/>
+    </row>
+    <row r="307">
+      <c r="L307" s="30"/>
+    </row>
+    <row r="308">
+      <c r="L308" s="30"/>
+    </row>
+    <row r="309">
+      <c r="L309" s="30"/>
+    </row>
+    <row r="310">
+      <c r="L310" s="30"/>
+    </row>
+    <row r="311">
+      <c r="L311" s="30"/>
+    </row>
+    <row r="312">
+      <c r="L312" s="30"/>
+    </row>
+    <row r="313">
+      <c r="L313" s="30"/>
+    </row>
+    <row r="314">
+      <c r="L314" s="30"/>
+    </row>
+    <row r="315">
+      <c r="L315" s="30"/>
+    </row>
+    <row r="316">
+      <c r="L316" s="30"/>
+    </row>
+    <row r="317">
+      <c r="L317" s="30"/>
+    </row>
+    <row r="318">
+      <c r="L318" s="30"/>
+    </row>
+    <row r="319">
+      <c r="L319" s="30"/>
+    </row>
+    <row r="320">
+      <c r="L320" s="30"/>
+    </row>
+    <row r="321">
+      <c r="L321" s="30"/>
+    </row>
+    <row r="322">
+      <c r="L322" s="30"/>
+    </row>
+    <row r="323">
+      <c r="L323" s="30"/>
+    </row>
+    <row r="324">
+      <c r="L324" s="30"/>
+    </row>
+    <row r="325">
+      <c r="L325" s="30"/>
+    </row>
+    <row r="326">
+      <c r="L326" s="30"/>
+    </row>
+    <row r="327">
+      <c r="L327" s="30"/>
+    </row>
+    <row r="328">
+      <c r="L328" s="30"/>
+    </row>
+    <row r="329">
+      <c r="L329" s="30"/>
+    </row>
+    <row r="330">
+      <c r="L330" s="30"/>
+    </row>
+    <row r="331">
+      <c r="L331" s="30"/>
+    </row>
+    <row r="332">
+      <c r="L332" s="30"/>
+    </row>
+    <row r="333">
+      <c r="L333" s="30"/>
+    </row>
+    <row r="334">
+      <c r="L334" s="30"/>
+    </row>
+    <row r="335">
+      <c r="L335" s="30"/>
+    </row>
+    <row r="336">
+      <c r="L336" s="30"/>
+    </row>
+    <row r="337">
+      <c r="L337" s="30"/>
+    </row>
+    <row r="338">
+      <c r="L338" s="30"/>
+    </row>
+    <row r="339">
+      <c r="L339" s="30"/>
+    </row>
+    <row r="340">
+      <c r="L340" s="30"/>
+    </row>
+    <row r="341">
+      <c r="L341" s="30"/>
+    </row>
+    <row r="342">
+      <c r="L342" s="30"/>
+    </row>
+    <row r="343">
+      <c r="L343" s="30"/>
+    </row>
+    <row r="344">
+      <c r="L344" s="30"/>
+    </row>
+    <row r="345">
+      <c r="L345" s="30"/>
+    </row>
+    <row r="346">
+      <c r="L346" s="30"/>
+    </row>
+    <row r="347">
+      <c r="L347" s="30"/>
+    </row>
+    <row r="348">
+      <c r="L348" s="30"/>
+    </row>
+    <row r="349">
+      <c r="L349" s="30"/>
+    </row>
+    <row r="350">
+      <c r="L350" s="30"/>
+    </row>
+    <row r="351">
+      <c r="L351" s="30"/>
+    </row>
+    <row r="352">
+      <c r="L352" s="30"/>
+    </row>
+    <row r="353">
+      <c r="L353" s="30"/>
+    </row>
+    <row r="354">
+      <c r="L354" s="30"/>
+    </row>
+    <row r="355">
+      <c r="L355" s="30"/>
+    </row>
+    <row r="356">
+      <c r="L356" s="30"/>
+    </row>
+    <row r="357">
+      <c r="L357" s="30"/>
+    </row>
+    <row r="358">
+      <c r="L358" s="30"/>
+    </row>
+    <row r="359">
+      <c r="L359" s="30"/>
+    </row>
+    <row r="360">
+      <c r="L360" s="30"/>
+    </row>
+    <row r="361">
+      <c r="L361" s="30"/>
+    </row>
+    <row r="362">
+      <c r="L362" s="30"/>
+    </row>
+    <row r="363">
+      <c r="L363" s="30"/>
+    </row>
+    <row r="364">
+      <c r="L364" s="30"/>
+    </row>
+    <row r="365">
+      <c r="L365" s="30"/>
+    </row>
+    <row r="366">
+      <c r="L366" s="30"/>
+    </row>
+    <row r="367">
+      <c r="L367" s="30"/>
+    </row>
+    <row r="368">
+      <c r="L368" s="30"/>
+    </row>
+    <row r="369">
+      <c r="L369" s="30"/>
+    </row>
+    <row r="370">
+      <c r="L370" s="30"/>
+    </row>
+    <row r="371">
+      <c r="L371" s="30"/>
+    </row>
+    <row r="372">
+      <c r="L372" s="30"/>
+    </row>
+    <row r="373">
+      <c r="L373" s="30"/>
+    </row>
+    <row r="374">
+      <c r="L374" s="30"/>
+    </row>
+    <row r="375">
+      <c r="L375" s="30"/>
+    </row>
+    <row r="376">
+      <c r="L376" s="30"/>
+    </row>
+    <row r="377">
+      <c r="L377" s="30"/>
+    </row>
+    <row r="378">
+      <c r="L378" s="30"/>
+    </row>
+    <row r="379">
+      <c r="L379" s="30"/>
+    </row>
+    <row r="380">
+      <c r="L380" s="30"/>
+    </row>
+    <row r="381">
+      <c r="L381" s="30"/>
+    </row>
+    <row r="382">
+      <c r="L382" s="30"/>
+    </row>
+    <row r="383">
+      <c r="L383" s="30"/>
+    </row>
+    <row r="384">
+      <c r="L384" s="30"/>
+    </row>
+    <row r="385">
+      <c r="L385" s="30"/>
+    </row>
+    <row r="386">
+      <c r="L386" s="30"/>
+    </row>
+    <row r="387">
+      <c r="L387" s="30"/>
+    </row>
+    <row r="388">
+      <c r="L388" s="30"/>
+    </row>
+    <row r="389">
+      <c r="L389" s="30"/>
+    </row>
+    <row r="390">
+      <c r="L390" s="30"/>
+    </row>
+    <row r="391">
+      <c r="L391" s="30"/>
+    </row>
+    <row r="392">
+      <c r="L392" s="30"/>
+    </row>
+    <row r="393">
+      <c r="L393" s="30"/>
+    </row>
+    <row r="394">
+      <c r="L394" s="30"/>
+    </row>
+    <row r="395">
+      <c r="L395" s="30"/>
+    </row>
+    <row r="396">
+      <c r="L396" s="30"/>
+    </row>
+    <row r="397">
+      <c r="L397" s="30"/>
+    </row>
+    <row r="398">
+      <c r="L398" s="30"/>
+    </row>
+    <row r="399">
+      <c r="L399" s="30"/>
+    </row>
+    <row r="400">
+      <c r="L400" s="30"/>
+    </row>
+    <row r="401">
+      <c r="L401" s="30"/>
+    </row>
+    <row r="402">
+      <c r="L402" s="30"/>
+    </row>
+    <row r="403">
+      <c r="L403" s="30"/>
+    </row>
+    <row r="404">
+      <c r="L404" s="30"/>
+    </row>
+    <row r="405">
+      <c r="L405" s="30"/>
+    </row>
+    <row r="406">
+      <c r="L406" s="30"/>
+    </row>
+    <row r="407">
+      <c r="L407" s="30"/>
+    </row>
+    <row r="408">
+      <c r="L408" s="30"/>
+    </row>
+    <row r="409">
+      <c r="L409" s="30"/>
+    </row>
+    <row r="410">
+      <c r="L410" s="30"/>
+    </row>
+    <row r="411">
+      <c r="L411" s="30"/>
+    </row>
+    <row r="412">
+      <c r="L412" s="30"/>
+    </row>
+    <row r="413">
+      <c r="L413" s="30"/>
+    </row>
+    <row r="414">
+      <c r="L414" s="30"/>
+    </row>
+    <row r="415">
+      <c r="L415" s="30"/>
+    </row>
+    <row r="416">
+      <c r="L416" s="30"/>
+    </row>
+    <row r="417">
+      <c r="L417" s="30"/>
+    </row>
+    <row r="418">
+      <c r="L418" s="30"/>
+    </row>
+    <row r="419">
+      <c r="L419" s="30"/>
+    </row>
+    <row r="420">
+      <c r="L420" s="30"/>
+    </row>
+    <row r="421">
+      <c r="L421" s="30"/>
+    </row>
+    <row r="422">
+      <c r="L422" s="30"/>
+    </row>
+    <row r="423">
+      <c r="L423" s="30"/>
+    </row>
+    <row r="424">
+      <c r="L424" s="30"/>
+    </row>
+    <row r="425">
+      <c r="L425" s="30"/>
+    </row>
+    <row r="426">
+      <c r="L426" s="30"/>
+    </row>
+    <row r="427">
+      <c r="L427" s="30"/>
+    </row>
+    <row r="428">
+      <c r="L428" s="30"/>
+    </row>
+    <row r="429">
+      <c r="L429" s="30"/>
+    </row>
+    <row r="430">
+      <c r="L430" s="30"/>
+    </row>
+    <row r="431">
+      <c r="L431" s="30"/>
+    </row>
+    <row r="432">
+      <c r="L432" s="30"/>
+    </row>
+    <row r="433">
+      <c r="L433" s="30"/>
+    </row>
+    <row r="434">
+      <c r="L434" s="30"/>
+    </row>
+    <row r="435">
+      <c r="L435" s="30"/>
+    </row>
+    <row r="436">
+      <c r="L436" s="30"/>
+    </row>
+    <row r="437">
+      <c r="L437" s="30"/>
+    </row>
+    <row r="438">
+      <c r="L438" s="30"/>
+    </row>
+    <row r="439">
+      <c r="L439" s="30"/>
+    </row>
+    <row r="440">
+      <c r="L440" s="30"/>
+    </row>
+    <row r="441">
+      <c r="L441" s="30"/>
+    </row>
+    <row r="442">
+      <c r="L442" s="30"/>
+    </row>
+    <row r="443">
+      <c r="L443" s="30"/>
+    </row>
+    <row r="444">
+      <c r="L444" s="30"/>
+    </row>
+    <row r="445">
+      <c r="L445" s="30"/>
+    </row>
+    <row r="446">
+      <c r="L446" s="30"/>
+    </row>
+    <row r="447">
+      <c r="L447" s="30"/>
+    </row>
+    <row r="448">
+      <c r="L448" s="30"/>
+    </row>
+    <row r="449">
+      <c r="L449" s="30"/>
+    </row>
+    <row r="450">
+      <c r="L450" s="30"/>
+    </row>
+    <row r="451">
+      <c r="L451" s="30"/>
+    </row>
+    <row r="452">
+      <c r="L452" s="30"/>
+    </row>
+    <row r="453">
+      <c r="L453" s="30"/>
+    </row>
+    <row r="454">
+      <c r="L454" s="30"/>
+    </row>
+    <row r="455">
+      <c r="L455" s="30"/>
+    </row>
+    <row r="456">
+      <c r="L456" s="30"/>
+    </row>
+    <row r="457">
+      <c r="L457" s="30"/>
+    </row>
+    <row r="458">
+      <c r="L458" s="30"/>
+    </row>
+    <row r="459">
+      <c r="L459" s="30"/>
+    </row>
+    <row r="460">
+      <c r="L460" s="30"/>
+    </row>
+    <row r="461">
+      <c r="L461" s="30"/>
+    </row>
+    <row r="462">
+      <c r="L462" s="30"/>
+    </row>
+    <row r="463">
+      <c r="L463" s="30"/>
+    </row>
+    <row r="464">
+      <c r="L464" s="30"/>
+    </row>
+    <row r="465">
+      <c r="L465" s="30"/>
+    </row>
+    <row r="466">
+      <c r="L466" s="30"/>
+    </row>
+    <row r="467">
+      <c r="L467" s="30"/>
+    </row>
+    <row r="468">
+      <c r="L468" s="30"/>
+    </row>
+    <row r="469">
+      <c r="L469" s="30"/>
+    </row>
+    <row r="470">
+      <c r="L470" s="30"/>
+    </row>
+    <row r="471">
+      <c r="L471" s="30"/>
+    </row>
+    <row r="472">
+      <c r="L472" s="30"/>
+    </row>
+    <row r="473">
+      <c r="L473" s="30"/>
+    </row>
+    <row r="474">
+      <c r="L474" s="30"/>
+    </row>
+    <row r="475">
+      <c r="L475" s="30"/>
+    </row>
+    <row r="476">
+      <c r="L476" s="30"/>
+    </row>
+    <row r="477">
+      <c r="L477" s="30"/>
+    </row>
+    <row r="478">
+      <c r="L478" s="30"/>
+    </row>
+    <row r="479">
+      <c r="L479" s="30"/>
+    </row>
+    <row r="480">
+      <c r="L480" s="30"/>
+    </row>
+    <row r="481">
+      <c r="L481" s="30"/>
+    </row>
+    <row r="482">
+      <c r="L482" s="30"/>
+    </row>
+    <row r="483">
+      <c r="L483" s="30"/>
+    </row>
+    <row r="484">
+      <c r="L484" s="30"/>
+    </row>
+    <row r="485">
+      <c r="L485" s="30"/>
+    </row>
+    <row r="486">
+      <c r="L486" s="30"/>
+    </row>
+    <row r="487">
+      <c r="L487" s="30"/>
+    </row>
+    <row r="488">
+      <c r="L488" s="30"/>
+    </row>
+    <row r="489">
+      <c r="L489" s="30"/>
+    </row>
+    <row r="490">
+      <c r="L490" s="30"/>
+    </row>
+    <row r="491">
+      <c r="L491" s="30"/>
+    </row>
+    <row r="492">
+      <c r="L492" s="30"/>
+    </row>
+    <row r="493">
+      <c r="L493" s="30"/>
+    </row>
+    <row r="494">
+      <c r="L494" s="30"/>
+    </row>
+    <row r="495">
+      <c r="L495" s="30"/>
+    </row>
+    <row r="496">
+      <c r="L496" s="30"/>
+    </row>
+    <row r="497">
+      <c r="L497" s="30"/>
+    </row>
+    <row r="498">
+      <c r="L498" s="30"/>
+    </row>
+    <row r="499">
+      <c r="L499" s="30"/>
+    </row>
+    <row r="500">
+      <c r="L500" s="30"/>
+    </row>
+    <row r="501">
+      <c r="L501" s="30"/>
+    </row>
+    <row r="502">
+      <c r="L502" s="30"/>
+    </row>
+    <row r="503">
+      <c r="L503" s="30"/>
+    </row>
+    <row r="504">
+      <c r="L504" s="30"/>
+    </row>
+    <row r="505">
+      <c r="L505" s="30"/>
+    </row>
+    <row r="506">
+      <c r="L506" s="30"/>
+    </row>
+    <row r="507">
+      <c r="L507" s="30"/>
+    </row>
+    <row r="508">
+      <c r="L508" s="30"/>
+    </row>
+    <row r="509">
+      <c r="L509" s="30"/>
+    </row>
+    <row r="510">
+      <c r="L510" s="30"/>
+    </row>
+    <row r="511">
+      <c r="L511" s="30"/>
+    </row>
+    <row r="512">
+      <c r="L512" s="30"/>
+    </row>
+    <row r="513">
+      <c r="L513" s="30"/>
+    </row>
+    <row r="514">
+      <c r="L514" s="30"/>
+    </row>
+    <row r="515">
+      <c r="L515" s="30"/>
+    </row>
+    <row r="516">
+      <c r="L516" s="30"/>
+    </row>
+    <row r="517">
+      <c r="L517" s="30"/>
+    </row>
+    <row r="518">
+      <c r="L518" s="30"/>
+    </row>
+    <row r="519">
+      <c r="L519" s="30"/>
+    </row>
+    <row r="520">
+      <c r="L520" s="30"/>
+    </row>
+    <row r="521">
+      <c r="L521" s="30"/>
+    </row>
+    <row r="522">
+      <c r="L522" s="30"/>
+    </row>
+    <row r="523">
+      <c r="L523" s="30"/>
+    </row>
+    <row r="524">
+      <c r="L524" s="30"/>
+    </row>
+    <row r="525">
+      <c r="L525" s="30"/>
+    </row>
+    <row r="526">
+      <c r="L526" s="30"/>
+    </row>
+    <row r="527">
+      <c r="L527" s="30"/>
+    </row>
+    <row r="528">
+      <c r="L528" s="30"/>
+    </row>
+    <row r="529">
+      <c r="L529" s="30"/>
+    </row>
+    <row r="530">
+      <c r="L530" s="30"/>
+    </row>
+    <row r="531">
+      <c r="L531" s="30"/>
+    </row>
+    <row r="532">
+      <c r="L532" s="30"/>
+    </row>
+    <row r="533">
+      <c r="L533" s="30"/>
+    </row>
+    <row r="534">
+      <c r="L534" s="30"/>
+    </row>
+    <row r="535">
+      <c r="L535" s="30"/>
+    </row>
+    <row r="536">
+      <c r="L536" s="30"/>
+    </row>
+    <row r="537">
+      <c r="L537" s="30"/>
+    </row>
+    <row r="538">
+      <c r="L538" s="30"/>
+    </row>
+    <row r="539">
+      <c r="L539" s="30"/>
+    </row>
+    <row r="540">
+      <c r="L540" s="30"/>
+    </row>
+    <row r="541">
+      <c r="L541" s="30"/>
+    </row>
+    <row r="542">
+      <c r="L542" s="30"/>
+    </row>
+    <row r="543">
+      <c r="L543" s="30"/>
+    </row>
+    <row r="544">
+      <c r="L544" s="30"/>
+    </row>
+    <row r="545">
+      <c r="L545" s="30"/>
+    </row>
+    <row r="546">
+      <c r="L546" s="30"/>
+    </row>
+    <row r="547">
+      <c r="L547" s="30"/>
+    </row>
+    <row r="548">
+      <c r="L548" s="30"/>
+    </row>
+    <row r="549">
+      <c r="L549" s="30"/>
+    </row>
+    <row r="550">
+      <c r="L550" s="30"/>
+    </row>
+    <row r="551">
+      <c r="L551" s="30"/>
+    </row>
+    <row r="552">
+      <c r="L552" s="30"/>
+    </row>
+    <row r="553">
+      <c r="L553" s="30"/>
+    </row>
+    <row r="554">
+      <c r="L554" s="30"/>
+    </row>
+    <row r="555">
+      <c r="L555" s="30"/>
+    </row>
+    <row r="556">
+      <c r="L556" s="30"/>
+    </row>
+    <row r="557">
+      <c r="L557" s="30"/>
+    </row>
+    <row r="558">
+      <c r="L558" s="30"/>
+    </row>
+    <row r="559">
+      <c r="L559" s="30"/>
+    </row>
+    <row r="560">
+      <c r="L560" s="30"/>
+    </row>
+    <row r="561">
+      <c r="L561" s="30"/>
+    </row>
+    <row r="562">
+      <c r="L562" s="30"/>
+    </row>
+    <row r="563">
+      <c r="L563" s="30"/>
+    </row>
+    <row r="564">
+      <c r="L564" s="30"/>
+    </row>
+    <row r="565">
+      <c r="L565" s="30"/>
+    </row>
+    <row r="566">
+      <c r="L566" s="30"/>
+    </row>
+    <row r="567">
+      <c r="L567" s="30"/>
+    </row>
+    <row r="568">
+      <c r="L568" s="30"/>
+    </row>
+    <row r="569">
+      <c r="L569" s="30"/>
+    </row>
+    <row r="570">
+      <c r="L570" s="30"/>
+    </row>
+    <row r="571">
+      <c r="L571" s="30"/>
+    </row>
+    <row r="572">
+      <c r="L572" s="30"/>
+    </row>
+    <row r="573">
+      <c r="L573" s="30"/>
+    </row>
+    <row r="574">
+      <c r="L574" s="30"/>
+    </row>
+    <row r="575">
+      <c r="L575" s="30"/>
+    </row>
+    <row r="576">
+      <c r="L576" s="30"/>
+    </row>
+    <row r="577">
+      <c r="L577" s="30"/>
+    </row>
+    <row r="578">
+      <c r="L578" s="30"/>
+    </row>
+    <row r="579">
+      <c r="L579" s="30"/>
+    </row>
+    <row r="580">
+      <c r="L580" s="30"/>
+    </row>
+    <row r="581">
+      <c r="L581" s="30"/>
+    </row>
+    <row r="582">
+      <c r="L582" s="30"/>
+    </row>
+    <row r="583">
+      <c r="L583" s="30"/>
+    </row>
+    <row r="584">
+      <c r="L584" s="30"/>
+    </row>
+    <row r="585">
+      <c r="L585" s="30"/>
+    </row>
+    <row r="586">
+      <c r="L586" s="30"/>
+    </row>
+    <row r="587">
+      <c r="L587" s="30"/>
+    </row>
+    <row r="588">
+      <c r="L588" s="30"/>
+    </row>
+    <row r="589">
+      <c r="L589" s="30"/>
+    </row>
+    <row r="590">
+      <c r="L590" s="30"/>
+    </row>
+    <row r="591">
+      <c r="L591" s="30"/>
+    </row>
+    <row r="592">
+      <c r="L592" s="30"/>
+    </row>
+    <row r="593">
+      <c r="L593" s="30"/>
+    </row>
+    <row r="594">
+      <c r="L594" s="30"/>
+    </row>
+    <row r="595">
+      <c r="L595" s="30"/>
+    </row>
+    <row r="596">
+      <c r="L596" s="30"/>
+    </row>
+    <row r="597">
+      <c r="L597" s="30"/>
+    </row>
+    <row r="598">
+      <c r="L598" s="30"/>
+    </row>
+    <row r="599">
+      <c r="L599" s="30"/>
+    </row>
+    <row r="600">
+      <c r="L600" s="30"/>
+    </row>
+    <row r="601">
+      <c r="L601" s="30"/>
+    </row>
+    <row r="602">
+      <c r="L602" s="30"/>
+    </row>
+    <row r="603">
+      <c r="L603" s="30"/>
+    </row>
+    <row r="604">
+      <c r="L604" s="30"/>
+    </row>
+    <row r="605">
+      <c r="L605" s="30"/>
+    </row>
+    <row r="606">
+      <c r="L606" s="30"/>
+    </row>
+    <row r="607">
+      <c r="L607" s="30"/>
+    </row>
+    <row r="608">
+      <c r="L608" s="30"/>
+    </row>
+    <row r="609">
+      <c r="L609" s="30"/>
+    </row>
+    <row r="610">
+      <c r="L610" s="30"/>
+    </row>
+    <row r="611">
+      <c r="L611" s="30"/>
+    </row>
+    <row r="612">
+      <c r="L612" s="30"/>
+    </row>
+    <row r="613">
+      <c r="L613" s="30"/>
+    </row>
+    <row r="614">
+      <c r="L614" s="30"/>
+    </row>
+    <row r="615">
+      <c r="L615" s="30"/>
+    </row>
+    <row r="616">
+      <c r="L616" s="30"/>
+    </row>
+    <row r="617">
+      <c r="L617" s="30"/>
+    </row>
+    <row r="618">
+      <c r="L618" s="30"/>
+    </row>
+    <row r="619">
+      <c r="L619" s="30"/>
+    </row>
+    <row r="620">
+      <c r="L620" s="30"/>
+    </row>
+    <row r="621">
+      <c r="L621" s="30"/>
+    </row>
+    <row r="622">
+      <c r="L622" s="30"/>
+    </row>
+    <row r="623">
+      <c r="L623" s="30"/>
+    </row>
+    <row r="624">
+      <c r="L624" s="30"/>
+    </row>
+    <row r="625">
+      <c r="L625" s="30"/>
+    </row>
+    <row r="626">
+      <c r="L626" s="30"/>
+    </row>
+    <row r="627">
+      <c r="L627" s="30"/>
+    </row>
+    <row r="628">
+      <c r="L628" s="30"/>
+    </row>
+    <row r="629">
+      <c r="L629" s="30"/>
+    </row>
+    <row r="630">
+      <c r="L630" s="30"/>
+    </row>
+    <row r="631">
+      <c r="L631" s="30"/>
+    </row>
+    <row r="632">
+      <c r="L632" s="30"/>
+    </row>
+    <row r="633">
+      <c r="L633" s="30"/>
+    </row>
+    <row r="634">
+      <c r="L634" s="30"/>
+    </row>
+    <row r="635">
+      <c r="L635" s="30"/>
+    </row>
+    <row r="636">
+      <c r="L636" s="30"/>
+    </row>
+    <row r="637">
+      <c r="L637" s="30"/>
+    </row>
+    <row r="638">
+      <c r="L638" s="30"/>
+    </row>
+    <row r="639">
+      <c r="L639" s="30"/>
+    </row>
+    <row r="640">
+      <c r="L640" s="30"/>
+    </row>
+    <row r="641">
+      <c r="L641" s="30"/>
+    </row>
+    <row r="642">
+      <c r="L642" s="30"/>
+    </row>
+    <row r="643">
+      <c r="L643" s="30"/>
+    </row>
+    <row r="644">
+      <c r="L644" s="30"/>
+    </row>
+    <row r="645">
+      <c r="L645" s="30"/>
+    </row>
+    <row r="646">
+      <c r="L646" s="30"/>
+    </row>
+    <row r="647">
+      <c r="L647" s="30"/>
+    </row>
+    <row r="648">
+      <c r="L648" s="30"/>
+    </row>
+    <row r="649">
+      <c r="L649" s="30"/>
+    </row>
+    <row r="650">
+      <c r="L650" s="30"/>
+    </row>
+    <row r="651">
+      <c r="L651" s="30"/>
+    </row>
+    <row r="652">
+      <c r="L652" s="30"/>
+    </row>
+    <row r="653">
+      <c r="L653" s="30"/>
+    </row>
+    <row r="654">
+      <c r="L654" s="30"/>
+    </row>
+    <row r="655">
+      <c r="L655" s="30"/>
+    </row>
+    <row r="656">
+      <c r="L656" s="30"/>
+    </row>
+    <row r="657">
+      <c r="L657" s="30"/>
+    </row>
+    <row r="658">
+      <c r="L658" s="30"/>
+    </row>
+    <row r="659">
+      <c r="L659" s="30"/>
+    </row>
+    <row r="660">
+      <c r="L660" s="30"/>
+    </row>
+    <row r="661">
+      <c r="L661" s="30"/>
+    </row>
+    <row r="662">
+      <c r="L662" s="30"/>
+    </row>
+    <row r="663">
+      <c r="L663" s="30"/>
+    </row>
+    <row r="664">
+      <c r="L664" s="30"/>
+    </row>
+    <row r="665">
+      <c r="L665" s="30"/>
+    </row>
+    <row r="666">
+      <c r="L666" s="30"/>
+    </row>
+    <row r="667">
+      <c r="L667" s="30"/>
+    </row>
+    <row r="668">
+      <c r="L668" s="30"/>
+    </row>
+    <row r="669">
+      <c r="L669" s="30"/>
+    </row>
+    <row r="670">
+      <c r="L670" s="30"/>
+    </row>
+    <row r="671">
+      <c r="L671" s="30"/>
+    </row>
+    <row r="672">
+      <c r="L672" s="30"/>
+    </row>
+    <row r="673">
+      <c r="L673" s="30"/>
+    </row>
+    <row r="674">
+      <c r="L674" s="30"/>
+    </row>
+    <row r="675">
+      <c r="L675" s="30"/>
+    </row>
+    <row r="676">
+      <c r="L676" s="30"/>
+    </row>
+    <row r="677">
+      <c r="L677" s="30"/>
+    </row>
+    <row r="678">
+      <c r="L678" s="30"/>
+    </row>
+    <row r="679">
+      <c r="L679" s="30"/>
+    </row>
+    <row r="680">
+      <c r="L680" s="30"/>
+    </row>
+    <row r="681">
+      <c r="L681" s="30"/>
+    </row>
+    <row r="682">
+      <c r="L682" s="30"/>
+    </row>
+    <row r="683">
+      <c r="L683" s="30"/>
+    </row>
+    <row r="684">
+      <c r="L684" s="30"/>
+    </row>
+    <row r="685">
+      <c r="L685" s="30"/>
+    </row>
+    <row r="686">
+      <c r="L686" s="30"/>
+    </row>
+    <row r="687">
+      <c r="L687" s="30"/>
+    </row>
+    <row r="688">
+      <c r="L688" s="30"/>
+    </row>
+    <row r="689">
+      <c r="L689" s="30"/>
+    </row>
+    <row r="690">
+      <c r="L690" s="30"/>
+    </row>
+    <row r="691">
+      <c r="L691" s="30"/>
+    </row>
+    <row r="692">
+      <c r="L692" s="30"/>
+    </row>
+    <row r="693">
+      <c r="L693" s="30"/>
+    </row>
+    <row r="694">
+      <c r="L694" s="30"/>
+    </row>
+    <row r="695">
+      <c r="L695" s="30"/>
+    </row>
+    <row r="696">
+      <c r="L696" s="30"/>
+    </row>
+    <row r="697">
+      <c r="L697" s="30"/>
+    </row>
+    <row r="698">
+      <c r="L698" s="30"/>
+    </row>
+    <row r="699">
+      <c r="L699" s="30"/>
+    </row>
+    <row r="700">
+      <c r="L700" s="30"/>
+    </row>
+    <row r="701">
+      <c r="L701" s="30"/>
+    </row>
+    <row r="702">
+      <c r="L702" s="30"/>
+    </row>
+    <row r="703">
+      <c r="L703" s="30"/>
+    </row>
+    <row r="704">
+      <c r="L704" s="30"/>
+    </row>
+    <row r="705">
+      <c r="L705" s="30"/>
+    </row>
+    <row r="706">
+      <c r="L706" s="30"/>
+    </row>
+    <row r="707">
+      <c r="L707" s="30"/>
+    </row>
+    <row r="708">
+      <c r="L708" s="30"/>
+    </row>
+    <row r="709">
+      <c r="L709" s="30"/>
+    </row>
+    <row r="710">
+      <c r="L710" s="30"/>
+    </row>
+    <row r="711">
+      <c r="L711" s="30"/>
+    </row>
+    <row r="712">
+      <c r="L712" s="30"/>
+    </row>
+    <row r="713">
+      <c r="L713" s="30"/>
+    </row>
+    <row r="714">
+      <c r="L714" s="30"/>
+    </row>
+    <row r="715">
+      <c r="L715" s="30"/>
+    </row>
+    <row r="716">
+      <c r="L716" s="30"/>
+    </row>
+    <row r="717">
+      <c r="L717" s="30"/>
+    </row>
+    <row r="718">
+      <c r="L718" s="30"/>
+    </row>
+    <row r="719">
+      <c r="L719" s="30"/>
+    </row>
+    <row r="720">
+      <c r="L720" s="30"/>
+    </row>
+    <row r="721">
+      <c r="L721" s="30"/>
+    </row>
+    <row r="722">
+      <c r="L722" s="30"/>
+    </row>
+    <row r="723">
+      <c r="L723" s="30"/>
+    </row>
+    <row r="724">
+      <c r="L724" s="30"/>
+    </row>
+    <row r="725">
+      <c r="L725" s="30"/>
+    </row>
+    <row r="726">
+      <c r="L726" s="30"/>
+    </row>
+    <row r="727">
+      <c r="L727" s="30"/>
+    </row>
+    <row r="728">
+      <c r="L728" s="30"/>
+    </row>
+    <row r="729">
+      <c r="L729" s="30"/>
+    </row>
+    <row r="730">
+      <c r="L730" s="30"/>
+    </row>
+    <row r="731">
+      <c r="L731" s="30"/>
+    </row>
+    <row r="732">
+      <c r="L732" s="30"/>
+    </row>
+    <row r="733">
+      <c r="L733" s="30"/>
+    </row>
+    <row r="734">
+      <c r="L734" s="30"/>
+    </row>
+    <row r="735">
+      <c r="L735" s="30"/>
+    </row>
+    <row r="736">
+      <c r="L736" s="30"/>
+    </row>
+    <row r="737">
+      <c r="L737" s="30"/>
+    </row>
+    <row r="738">
+      <c r="L738" s="30"/>
+    </row>
+    <row r="739">
+      <c r="L739" s="30"/>
+    </row>
+    <row r="740">
+      <c r="L740" s="30"/>
+    </row>
+    <row r="741">
+      <c r="L741" s="30"/>
+    </row>
+    <row r="742">
+      <c r="L742" s="30"/>
+    </row>
+    <row r="743">
+      <c r="L743" s="30"/>
+    </row>
+    <row r="744">
+      <c r="L744" s="30"/>
+    </row>
+    <row r="745">
+      <c r="L745" s="30"/>
+    </row>
+    <row r="746">
+      <c r="L746" s="30"/>
+    </row>
+    <row r="747">
+      <c r="L747" s="30"/>
+    </row>
+    <row r="748">
+      <c r="L748" s="30"/>
+    </row>
+    <row r="749">
+      <c r="L749" s="30"/>
+    </row>
+    <row r="750">
+      <c r="L750" s="30"/>
+    </row>
+    <row r="751">
+      <c r="L751" s="30"/>
+    </row>
+    <row r="752">
+      <c r="L752" s="30"/>
+    </row>
+    <row r="753">
+      <c r="L753" s="30"/>
+    </row>
+    <row r="754">
+      <c r="L754" s="30"/>
+    </row>
+    <row r="755">
+      <c r="L755" s="30"/>
+    </row>
+    <row r="756">
+      <c r="L756" s="30"/>
+    </row>
+    <row r="757">
+      <c r="L757" s="30"/>
+    </row>
+    <row r="758">
+      <c r="L758" s="30"/>
+    </row>
+    <row r="759">
+      <c r="L759" s="30"/>
+    </row>
+    <row r="760">
+      <c r="L760" s="30"/>
+    </row>
+    <row r="761">
+      <c r="L761" s="30"/>
+    </row>
+    <row r="762">
+      <c r="L762" s="30"/>
+    </row>
+    <row r="763">
+      <c r="L763" s="30"/>
+    </row>
+    <row r="764">
+      <c r="L764" s="30"/>
+    </row>
+    <row r="765">
+      <c r="L765" s="30"/>
+    </row>
+    <row r="766">
+      <c r="L766" s="30"/>
+    </row>
+    <row r="767">
+      <c r="L767" s="30"/>
+    </row>
+    <row r="768">
+      <c r="L768" s="30"/>
+    </row>
+    <row r="769">
+      <c r="L769" s="30"/>
+    </row>
+    <row r="770">
+      <c r="L770" s="30"/>
+    </row>
+    <row r="771">
+      <c r="L771" s="30"/>
+    </row>
+    <row r="772">
+      <c r="L772" s="30"/>
+    </row>
+    <row r="773">
+      <c r="L773" s="30"/>
+    </row>
+    <row r="774">
+      <c r="L774" s="30"/>
+    </row>
+    <row r="775">
+      <c r="L775" s="30"/>
+    </row>
+    <row r="776">
+      <c r="L776" s="30"/>
+    </row>
+    <row r="777">
+      <c r="L777" s="30"/>
+    </row>
+    <row r="778">
+      <c r="L778" s="30"/>
+    </row>
+    <row r="779">
+      <c r="L779" s="30"/>
+    </row>
+    <row r="780">
+      <c r="L780" s="30"/>
+    </row>
+    <row r="781">
+      <c r="L781" s="30"/>
+    </row>
+    <row r="782">
+      <c r="L782" s="30"/>
+    </row>
+    <row r="783">
+      <c r="L783" s="30"/>
+    </row>
+    <row r="784">
+      <c r="L784" s="30"/>
+    </row>
+    <row r="785">
+      <c r="L785" s="30"/>
+    </row>
+    <row r="786">
+      <c r="L786" s="30"/>
+    </row>
+    <row r="787">
+      <c r="L787" s="30"/>
+    </row>
+    <row r="788">
+      <c r="L788" s="30"/>
+    </row>
+    <row r="789">
+      <c r="L789" s="30"/>
+    </row>
+    <row r="790">
+      <c r="L790" s="30"/>
+    </row>
+    <row r="791">
+      <c r="L791" s="30"/>
+    </row>
+    <row r="792">
+      <c r="L792" s="30"/>
+    </row>
+    <row r="793">
+      <c r="L793" s="30"/>
+    </row>
+    <row r="794">
+      <c r="L794" s="30"/>
+    </row>
+    <row r="795">
+      <c r="L795" s="30"/>
+    </row>
+    <row r="796">
+      <c r="L796" s="30"/>
+    </row>
+    <row r="797">
+      <c r="L797" s="30"/>
+    </row>
+    <row r="798">
+      <c r="L798" s="30"/>
+    </row>
+    <row r="799">
+      <c r="L799" s="30"/>
+    </row>
+    <row r="800">
+      <c r="L800" s="30"/>
+    </row>
+    <row r="801">
+      <c r="L801" s="30"/>
+    </row>
+    <row r="802">
+      <c r="L802" s="30"/>
+    </row>
+    <row r="803">
+      <c r="L803" s="30"/>
+    </row>
+    <row r="804">
+      <c r="L804" s="30"/>
+    </row>
+    <row r="805">
+      <c r="L805" s="30"/>
+    </row>
+    <row r="806">
+      <c r="L806" s="30"/>
+    </row>
+    <row r="807">
+      <c r="L807" s="30"/>
+    </row>
+    <row r="808">
+      <c r="L808" s="30"/>
+    </row>
+    <row r="809">
+      <c r="L809" s="30"/>
+    </row>
+    <row r="810">
+      <c r="L810" s="30"/>
+    </row>
+    <row r="811">
+      <c r="L811" s="30"/>
+    </row>
+    <row r="812">
+      <c r="L812" s="30"/>
+    </row>
+    <row r="813">
+      <c r="L813" s="30"/>
+    </row>
+    <row r="814">
+      <c r="L814" s="30"/>
+    </row>
+    <row r="815">
+      <c r="L815" s="30"/>
+    </row>
+    <row r="816">
+      <c r="L816" s="30"/>
+    </row>
+    <row r="817">
+      <c r="L817" s="30"/>
+    </row>
+    <row r="818">
+      <c r="L818" s="30"/>
+    </row>
+    <row r="819">
+      <c r="L819" s="30"/>
+    </row>
+    <row r="820">
+      <c r="L820" s="30"/>
+    </row>
+    <row r="821">
+      <c r="L821" s="30"/>
+    </row>
+    <row r="822">
+      <c r="L822" s="30"/>
+    </row>
+    <row r="823">
+      <c r="L823" s="30"/>
+    </row>
+    <row r="824">
+      <c r="L824" s="30"/>
+    </row>
+    <row r="825">
+      <c r="L825" s="30"/>
+    </row>
+    <row r="826">
+      <c r="L826" s="30"/>
+    </row>
+    <row r="827">
+      <c r="L827" s="30"/>
+    </row>
+    <row r="828">
+      <c r="L828" s="30"/>
+    </row>
+    <row r="829">
+      <c r="L829" s="30"/>
+    </row>
+    <row r="830">
+      <c r="L830" s="30"/>
+    </row>
+    <row r="831">
+      <c r="L831" s="30"/>
+    </row>
+    <row r="832">
+      <c r="L832" s="30"/>
+    </row>
+    <row r="833">
+      <c r="L833" s="30"/>
+    </row>
+    <row r="834">
+      <c r="L834" s="30"/>
+    </row>
+    <row r="835">
+      <c r="L835" s="30"/>
+    </row>
+    <row r="836">
+      <c r="L836" s="30"/>
+    </row>
+    <row r="837">
+      <c r="L837" s="30"/>
+    </row>
+    <row r="838">
+      <c r="L838" s="30"/>
+    </row>
+    <row r="839">
+      <c r="L839" s="30"/>
+    </row>
+    <row r="840">
+      <c r="L840" s="30"/>
+    </row>
+    <row r="841">
+      <c r="L841" s="30"/>
+    </row>
+    <row r="842">
+      <c r="L842" s="30"/>
+    </row>
+    <row r="843">
+      <c r="L843" s="30"/>
+    </row>
+    <row r="844">
+      <c r="L844" s="30"/>
+    </row>
+    <row r="845">
+      <c r="L845" s="30"/>
+    </row>
+    <row r="846">
+      <c r="L846" s="30"/>
+    </row>
+    <row r="847">
+      <c r="L847" s="30"/>
+    </row>
+    <row r="848">
+      <c r="L848" s="30"/>
+    </row>
+    <row r="849">
+      <c r="L849" s="30"/>
+    </row>
+    <row r="850">
+      <c r="L850" s="30"/>
+    </row>
+    <row r="851">
+      <c r="L851" s="30"/>
+    </row>
+    <row r="852">
+      <c r="L852" s="30"/>
+    </row>
+    <row r="853">
+      <c r="L853" s="30"/>
+    </row>
+    <row r="854">
+      <c r="L854" s="30"/>
+    </row>
+    <row r="855">
+      <c r="L855" s="30"/>
+    </row>
+    <row r="856">
+      <c r="L856" s="30"/>
+    </row>
+    <row r="857">
+      <c r="L857" s="30"/>
+    </row>
+    <row r="858">
+      <c r="L858" s="30"/>
+    </row>
+    <row r="859">
+      <c r="L859" s="30"/>
+    </row>
+    <row r="860">
+      <c r="L860" s="30"/>
+    </row>
+    <row r="861">
+      <c r="L861" s="30"/>
+    </row>
+    <row r="862">
+      <c r="L862" s="30"/>
+    </row>
+    <row r="863">
+      <c r="L863" s="30"/>
+    </row>
+    <row r="864">
+      <c r="L864" s="30"/>
+    </row>
+    <row r="865">
+      <c r="L865" s="30"/>
+    </row>
+    <row r="866">
+      <c r="L866" s="30"/>
+    </row>
+    <row r="867">
+      <c r="L867" s="30"/>
+    </row>
+    <row r="868">
+      <c r="L868" s="30"/>
+    </row>
+    <row r="869">
+      <c r="L869" s="30"/>
+    </row>
+    <row r="870">
+      <c r="L870" s="30"/>
+    </row>
+    <row r="871">
+      <c r="L871" s="30"/>
+    </row>
+    <row r="872">
+      <c r="L872" s="30"/>
+    </row>
+    <row r="873">
+      <c r="L873" s="30"/>
+    </row>
+    <row r="874">
+      <c r="L874" s="30"/>
+    </row>
+    <row r="875">
+      <c r="L875" s="30"/>
+    </row>
+    <row r="876">
+      <c r="L876" s="30"/>
+    </row>
+    <row r="877">
+      <c r="L877" s="30"/>
+    </row>
+    <row r="878">
+      <c r="L878" s="30"/>
+    </row>
+    <row r="879">
+      <c r="L879" s="30"/>
+    </row>
+    <row r="880">
+      <c r="L880" s="30"/>
+    </row>
+    <row r="881">
+      <c r="L881" s="30"/>
+    </row>
+    <row r="882">
+      <c r="L882" s="30"/>
+    </row>
+    <row r="883">
+      <c r="L883" s="30"/>
+    </row>
+    <row r="884">
+      <c r="L884" s="30"/>
+    </row>
+    <row r="885">
+      <c r="L885" s="30"/>
+    </row>
+    <row r="886">
+      <c r="L886" s="30"/>
+    </row>
+    <row r="887">
+      <c r="L887" s="30"/>
+    </row>
+    <row r="888">
+      <c r="L888" s="30"/>
+    </row>
+    <row r="889">
+      <c r="L889" s="30"/>
+    </row>
+    <row r="890">
+      <c r="L890" s="30"/>
+    </row>
+    <row r="891">
+      <c r="L891" s="30"/>
+    </row>
+    <row r="892">
+      <c r="L892" s="30"/>
+    </row>
+    <row r="893">
+      <c r="L893" s="30"/>
+    </row>
+    <row r="894">
+      <c r="L894" s="30"/>
+    </row>
+    <row r="895">
+      <c r="L895" s="30"/>
+    </row>
+    <row r="896">
+      <c r="L896" s="30"/>
+    </row>
+    <row r="897">
+      <c r="L897" s="30"/>
+    </row>
+    <row r="898">
+      <c r="L898" s="30"/>
+    </row>
+    <row r="899">
+      <c r="L899" s="30"/>
+    </row>
+    <row r="900">
+      <c r="L900" s="30"/>
+    </row>
+    <row r="901">
+      <c r="L901" s="30"/>
+    </row>
+    <row r="902">
+      <c r="L902" s="30"/>
+    </row>
+    <row r="903">
+      <c r="L903" s="30"/>
+    </row>
+    <row r="904">
+      <c r="L904" s="30"/>
+    </row>
+    <row r="905">
+      <c r="L905" s="30"/>
+    </row>
+    <row r="906">
+      <c r="L906" s="30"/>
+    </row>
+    <row r="907">
+      <c r="L907" s="30"/>
+    </row>
+    <row r="908">
+      <c r="L908" s="30"/>
+    </row>
+    <row r="909">
+      <c r="L909" s="30"/>
+    </row>
+    <row r="910">
+      <c r="L910" s="30"/>
+    </row>
+    <row r="911">
+      <c r="L911" s="30"/>
+    </row>
+    <row r="912">
+      <c r="L912" s="30"/>
+    </row>
+    <row r="913">
+      <c r="L913" s="30"/>
+    </row>
+    <row r="914">
+      <c r="L914" s="30"/>
+    </row>
+    <row r="915">
+      <c r="L915" s="30"/>
+    </row>
+    <row r="916">
+      <c r="L916" s="30"/>
+    </row>
+    <row r="917">
+      <c r="L917" s="30"/>
+    </row>
+    <row r="918">
+      <c r="L918" s="30"/>
+    </row>
+    <row r="919">
+      <c r="L919" s="30"/>
+    </row>
+    <row r="920">
+      <c r="L920" s="30"/>
+    </row>
+    <row r="921">
+      <c r="L921" s="30"/>
+    </row>
+    <row r="922">
+      <c r="L922" s="30"/>
+    </row>
+    <row r="923">
+      <c r="L923" s="30"/>
+    </row>
+    <row r="924">
+      <c r="L924" s="30"/>
+    </row>
+    <row r="925">
+      <c r="L925" s="30"/>
+    </row>
+    <row r="926">
+      <c r="L926" s="30"/>
+    </row>
+    <row r="927">
+      <c r="L927" s="30"/>
+    </row>
+    <row r="928">
+      <c r="L928" s="30"/>
+    </row>
+    <row r="929">
+      <c r="L929" s="30"/>
+    </row>
+    <row r="930">
+      <c r="L930" s="30"/>
+    </row>
+    <row r="931">
+      <c r="L931" s="30"/>
+    </row>
+    <row r="932">
+      <c r="L932" s="30"/>
+    </row>
+    <row r="933">
+      <c r="L933" s="30"/>
+    </row>
+    <row r="934">
+      <c r="L934" s="30"/>
+    </row>
+    <row r="935">
+      <c r="L935" s="30"/>
+    </row>
+    <row r="936">
+      <c r="L936" s="30"/>
+    </row>
+    <row r="937">
+      <c r="L937" s="30"/>
+    </row>
+    <row r="938">
+      <c r="L938" s="30"/>
+    </row>
+    <row r="939">
+      <c r="L939" s="30"/>
+    </row>
+    <row r="940">
+      <c r="L940" s="30"/>
+    </row>
+    <row r="941">
+      <c r="L941" s="30"/>
+    </row>
+    <row r="942">
+      <c r="L942" s="30"/>
+    </row>
+    <row r="943">
+      <c r="L943" s="30"/>
+    </row>
+    <row r="944">
+      <c r="L944" s="30"/>
+    </row>
+    <row r="945">
+      <c r="L945" s="30"/>
+    </row>
+    <row r="946">
+      <c r="L946" s="30"/>
+    </row>
+    <row r="947">
+      <c r="L947" s="30"/>
+    </row>
+    <row r="948">
+      <c r="L948" s="30"/>
+    </row>
+    <row r="949">
+      <c r="L949" s="30"/>
+    </row>
+    <row r="950">
+      <c r="L950" s="30"/>
+    </row>
+    <row r="951">
+      <c r="L951" s="30"/>
+    </row>
+    <row r="952">
+      <c r="L952" s="30"/>
+    </row>
+    <row r="953">
+      <c r="L953" s="30"/>
+    </row>
+    <row r="954">
+      <c r="L954" s="30"/>
+    </row>
+    <row r="955">
+      <c r="L955" s="30"/>
+    </row>
+    <row r="956">
+      <c r="L956" s="30"/>
+    </row>
+    <row r="957">
+      <c r="L957" s="30"/>
+    </row>
+    <row r="958">
+      <c r="L958" s="30"/>
+    </row>
+    <row r="959">
+      <c r="L959" s="30"/>
+    </row>
+    <row r="960">
+      <c r="L960" s="30"/>
+    </row>
+    <row r="961">
+      <c r="L961" s="30"/>
+    </row>
+    <row r="962">
+      <c r="L962" s="30"/>
+    </row>
+    <row r="963">
+      <c r="L963" s="30"/>
+    </row>
+    <row r="964">
+      <c r="L964" s="30"/>
+    </row>
+    <row r="965">
+      <c r="L965" s="30"/>
+    </row>
+    <row r="966">
+      <c r="L966" s="30"/>
+    </row>
+    <row r="967">
+      <c r="L967" s="30"/>
+    </row>
+    <row r="968">
+      <c r="L968" s="30"/>
+    </row>
+    <row r="969">
+      <c r="L969" s="30"/>
+    </row>
+    <row r="970">
+      <c r="L970" s="30"/>
+    </row>
+    <row r="971">
+      <c r="L971" s="30"/>
+    </row>
+    <row r="972">
+      <c r="L972" s="30"/>
+    </row>
+    <row r="973">
+      <c r="L973" s="30"/>
+    </row>
+    <row r="974">
+      <c r="L974" s="30"/>
+    </row>
+    <row r="975">
+      <c r="L975" s="30"/>
+    </row>
+    <row r="976">
+      <c r="L976" s="30"/>
+    </row>
+    <row r="977">
+      <c r="L977" s="30"/>
+    </row>
+    <row r="978">
+      <c r="L978" s="30"/>
+    </row>
+    <row r="979">
+      <c r="L979" s="30"/>
+    </row>
+    <row r="980">
+      <c r="L980" s="30"/>
+    </row>
+    <row r="981">
+      <c r="L981" s="30"/>
+    </row>
+    <row r="982">
+      <c r="L982" s="30"/>
+    </row>
+    <row r="983">
+      <c r="L983" s="30"/>
+    </row>
+    <row r="984">
+      <c r="L984" s="30"/>
+    </row>
+    <row r="985">
+      <c r="L985" s="30"/>
+    </row>
+    <row r="986">
+      <c r="L986" s="30"/>
+    </row>
+    <row r="987">
+      <c r="L987" s="30"/>
+    </row>
+    <row r="988">
+      <c r="L988" s="30"/>
+    </row>
+    <row r="989">
+      <c r="L989" s="30"/>
+    </row>
+    <row r="990">
+      <c r="L990" s="30"/>
+    </row>
+    <row r="991">
+      <c r="L991" s="30"/>
+    </row>
+    <row r="992">
+      <c r="L992" s="30"/>
+    </row>
+    <row r="993">
+      <c r="L993" s="30"/>
+    </row>
+    <row r="994">
+      <c r="L994" s="30"/>
+    </row>
+    <row r="995">
+      <c r="L995" s="30"/>
+    </row>
+    <row r="996">
+      <c r="L996" s="30"/>
+    </row>
+    <row r="997">
+      <c r="L997" s="30"/>
+    </row>
+    <row r="998">
+      <c r="L998" s="30"/>
+    </row>
+    <row r="999">
+      <c r="L999" s="30"/>
+    </row>
+    <row r="1000">
+      <c r="L1000" s="30"/>
+    </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B2:B14"/>
+    <mergeCell ref="B15:B25"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="C15:C25"/>
+    <mergeCell ref="C2:C14"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="G2"/>
     <hyperlink r:id="rId2" ref="G15"/>
